--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.63445233333333</v>
+        <v>38.552387</v>
       </c>
       <c r="H2">
-        <v>58.903357</v>
+        <v>115.657161</v>
       </c>
       <c r="I2">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923842</v>
       </c>
       <c r="J2">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.01710266666667</v>
+        <v>41.46003700000001</v>
       </c>
       <c r="N2">
-        <v>84.05130800000001</v>
+        <v>124.380111</v>
       </c>
       <c r="O2">
-        <v>0.541609178372911</v>
+        <v>0.5916248119519026</v>
       </c>
       <c r="P2">
-        <v>0.5416091783729111</v>
+        <v>0.5916248119519028</v>
       </c>
       <c r="Q2">
-        <v>550.100466826773</v>
+        <v>1598.383391458319</v>
       </c>
       <c r="R2">
-        <v>4950.904201440956</v>
+        <v>14385.45052312487</v>
       </c>
       <c r="S2">
-        <v>0.2784357811923018</v>
+        <v>0.3906576453826246</v>
       </c>
       <c r="T2">
-        <v>0.2784357811923019</v>
+        <v>0.3906576453826246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.63445233333333</v>
+        <v>38.552387</v>
       </c>
       <c r="H3">
-        <v>58.903357</v>
+        <v>115.657161</v>
       </c>
       <c r="I3">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923842</v>
       </c>
       <c r="J3">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.923303</v>
       </c>
       <c r="O3">
-        <v>0.01883715760812509</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="P3">
-        <v>0.0188371576081251</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="Q3">
-        <v>19.13248446979678</v>
+        <v>37.56676952475366</v>
       </c>
       <c r="R3">
-        <v>172.192360228171</v>
+        <v>338.100925722783</v>
       </c>
       <c r="S3">
-        <v>0.009683991526542327</v>
+        <v>0.009181618005791635</v>
       </c>
       <c r="T3">
-        <v>0.009683991526542328</v>
+        <v>0.009181618005791637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.63445233333333</v>
+        <v>38.552387</v>
       </c>
       <c r="H4">
-        <v>58.903357</v>
+        <v>115.657161</v>
       </c>
       <c r="I4">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923842</v>
       </c>
       <c r="J4">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.65829733333333</v>
+        <v>27.57046566666667</v>
       </c>
       <c r="N4">
-        <v>67.974892</v>
+        <v>82.71139700000001</v>
       </c>
       <c r="O4">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077632</v>
       </c>
       <c r="P4">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077633</v>
       </c>
       <c r="Q4">
-        <v>444.8832589458271</v>
+        <v>1062.907262151546</v>
       </c>
       <c r="R4">
-        <v>4003.949330512444</v>
+        <v>9566.165359363917</v>
       </c>
       <c r="S4">
-        <v>0.2251796266571169</v>
+        <v>0.2597830098280542</v>
       </c>
       <c r="T4">
-        <v>0.225179626657117</v>
+        <v>0.2597830098280542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.63445233333333</v>
+        <v>38.552387</v>
       </c>
       <c r="H5">
-        <v>58.903357</v>
+        <v>115.657161</v>
       </c>
       <c r="I5">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923842</v>
       </c>
       <c r="J5">
-        <v>0.5140898498595828</v>
+        <v>0.6603131536923841</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07953766666666667</v>
+        <v>0.07332233333333334</v>
       </c>
       <c r="N5">
-        <v>0.238613</v>
+        <v>0.219967</v>
       </c>
       <c r="O5">
-        <v>0.001537572632172427</v>
+        <v>0.001046292160091609</v>
       </c>
       <c r="P5">
-        <v>0.001537572632172428</v>
+        <v>0.00104629216009161</v>
       </c>
       <c r="Q5">
-        <v>1.561678524871222</v>
+        <v>2.826750970409666</v>
       </c>
       <c r="R5">
-        <v>14.055106723841</v>
+        <v>25.440758733687</v>
       </c>
       <c r="S5">
-        <v>0.0007904504836217267</v>
+        <v>0.0006908804759137075</v>
       </c>
       <c r="T5">
-        <v>0.000790450483621727</v>
+        <v>0.0006908804759137075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.210886</v>
       </c>
       <c r="I6">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="J6">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.01710266666667</v>
+        <v>41.46003700000001</v>
       </c>
       <c r="N6">
-        <v>84.05130800000001</v>
+        <v>124.380111</v>
       </c>
       <c r="O6">
-        <v>0.541609178372911</v>
+        <v>0.5916248119519026</v>
       </c>
       <c r="P6">
-        <v>0.5416091783729111</v>
+        <v>0.5916248119519028</v>
       </c>
       <c r="Q6">
-        <v>20.647540015432</v>
+        <v>30.554471787594</v>
       </c>
       <c r="R6">
-        <v>185.827860138888</v>
+        <v>274.990246088346</v>
       </c>
       <c r="S6">
-        <v>0.01045084358328038</v>
+        <v>0.007467756527150182</v>
       </c>
       <c r="T6">
-        <v>0.01045084358328038</v>
+        <v>0.007467756527150182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.210886</v>
       </c>
       <c r="I7">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="J7">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.923303</v>
       </c>
       <c r="O7">
-        <v>0.01883715760812509</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="P7">
-        <v>0.0188371576081251</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="Q7">
         <v>0.718121075162</v>
@@ -883,10 +883,10 @@
         <v>6.463089676457999</v>
       </c>
       <c r="S7">
-        <v>0.0003634801542830753</v>
+        <v>0.0001755145166182373</v>
       </c>
       <c r="T7">
-        <v>0.0003634801542830753</v>
+        <v>0.0001755145166182373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.210886</v>
       </c>
       <c r="I8">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="J8">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.65829733333333</v>
+        <v>27.57046566666667</v>
       </c>
       <c r="N8">
-        <v>67.974892</v>
+        <v>82.71139700000001</v>
       </c>
       <c r="O8">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077632</v>
       </c>
       <c r="P8">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077633</v>
       </c>
       <c r="Q8">
-        <v>16.698304119368</v>
+        <v>20.318385518638</v>
       </c>
       <c r="R8">
-        <v>150.284737074312</v>
+        <v>182.865469667742</v>
       </c>
       <c r="S8">
-        <v>0.008451920389893001</v>
+        <v>0.004965975426862739</v>
       </c>
       <c r="T8">
-        <v>0.008451920389893003</v>
+        <v>0.004965975426862739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2.210886</v>
       </c>
       <c r="I9">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="J9">
-        <v>0.01929591299519064</v>
+        <v>0.012622453244502</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07953766666666667</v>
+        <v>0.07332233333333334</v>
       </c>
       <c r="N9">
-        <v>0.238613</v>
+        <v>0.219967</v>
       </c>
       <c r="O9">
-        <v>0.001537572632172427</v>
+        <v>0.001046292160091609</v>
       </c>
       <c r="P9">
-        <v>0.001537572632172428</v>
+        <v>0.00104629216009161</v>
       </c>
       <c r="Q9">
-        <v>0.058616237902</v>
+        <v>0.054035773418</v>
       </c>
       <c r="R9">
-        <v>0.527546141118</v>
+        <v>0.486321960762</v>
       </c>
       <c r="S9">
-        <v>2.966886773418542E-05</v>
+        <v>1.320677387084535E-05</v>
       </c>
       <c r="T9">
-        <v>2.966886773418543E-05</v>
+        <v>1.320677387084535E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.64293233333333</v>
+        <v>18.94833433333333</v>
       </c>
       <c r="H10">
-        <v>52.928797</v>
+        <v>56.845003</v>
       </c>
       <c r="I10">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="J10">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.01710266666667</v>
+        <v>41.46003700000001</v>
       </c>
       <c r="N10">
-        <v>84.05130800000001</v>
+        <v>124.380111</v>
       </c>
       <c r="O10">
-        <v>0.541609178372911</v>
+        <v>0.5916248119519026</v>
       </c>
       <c r="P10">
-        <v>0.5416091783729111</v>
+        <v>0.5916248119519028</v>
       </c>
       <c r="Q10">
-        <v>494.303846524053</v>
+        <v>785.5986425483704</v>
       </c>
       <c r="R10">
-        <v>4448.734618716477</v>
+        <v>7070.387782935333</v>
       </c>
       <c r="S10">
-        <v>0.2501940753608282</v>
+        <v>0.1920065721114167</v>
       </c>
       <c r="T10">
-        <v>0.2501940753608282</v>
+        <v>0.1920065721114167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.64293233333333</v>
+        <v>18.94833433333333</v>
       </c>
       <c r="H11">
-        <v>52.928797</v>
+        <v>56.845003</v>
       </c>
       <c r="I11">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="J11">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.923303</v>
       </c>
       <c r="O11">
-        <v>0.01883715760812509</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="P11">
-        <v>0.0188371576081251</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="Q11">
-        <v>17.19187900627678</v>
+        <v>18.46390753387877</v>
       </c>
       <c r="R11">
-        <v>154.726911056491</v>
+        <v>166.175167804909</v>
       </c>
       <c r="S11">
-        <v>0.008701745499124593</v>
+        <v>0.004512726220939138</v>
       </c>
       <c r="T11">
-        <v>0.008701745499124593</v>
+        <v>0.00451272622093914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.64293233333333</v>
+        <v>18.94833433333333</v>
       </c>
       <c r="H12">
-        <v>52.928797</v>
+        <v>56.845003</v>
       </c>
       <c r="I12">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="J12">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.65829733333333</v>
+        <v>27.57046566666667</v>
       </c>
       <c r="N12">
-        <v>67.974892</v>
+        <v>82.71139700000001</v>
       </c>
       <c r="O12">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077632</v>
       </c>
       <c r="P12">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077633</v>
       </c>
       <c r="Q12">
-        <v>399.7588066405472</v>
+        <v>522.4144011776879</v>
       </c>
       <c r="R12">
-        <v>3597.829259764924</v>
+        <v>4701.729610599191</v>
       </c>
       <c r="S12">
-        <v>0.2023396857987285</v>
+        <v>0.1276822450537652</v>
       </c>
       <c r="T12">
-        <v>0.2023396857987285</v>
+        <v>0.1276822450537652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.64293233333333</v>
+        <v>18.94833433333333</v>
       </c>
       <c r="H13">
-        <v>52.928797</v>
+        <v>56.845003</v>
       </c>
       <c r="I13">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="J13">
-        <v>0.4619457818504019</v>
+        <v>0.3245411082032615</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07953766666666667</v>
+        <v>0.07332233333333334</v>
       </c>
       <c r="N13">
-        <v>0.238613</v>
+        <v>0.219967</v>
       </c>
       <c r="O13">
-        <v>0.001537572632172427</v>
+        <v>0.001046292160091609</v>
       </c>
       <c r="P13">
-        <v>0.001537572632172428</v>
+        <v>0.00104629216009161</v>
       </c>
       <c r="Q13">
-        <v>1.403277670951222</v>
+        <v>1.389336086100111</v>
       </c>
       <c r="R13">
-        <v>12.629499038561</v>
+        <v>12.504024774901</v>
       </c>
       <c r="S13">
-        <v>0.0007102751917206723</v>
+        <v>0.0003395648171405152</v>
       </c>
       <c r="T13">
-        <v>0.0007102751917206724</v>
+        <v>0.0003395648171405153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1783006666666667</v>
+        <v>0.147322</v>
       </c>
       <c r="H14">
-        <v>0.534902</v>
+        <v>0.441966</v>
       </c>
       <c r="I14">
-        <v>0.004668455294824549</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="J14">
-        <v>0.004668455294824548</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.01710266666667</v>
+        <v>41.46003700000001</v>
       </c>
       <c r="N14">
-        <v>84.05130800000001</v>
+        <v>124.380111</v>
       </c>
       <c r="O14">
-        <v>0.541609178372911</v>
+        <v>0.5916248119519026</v>
       </c>
       <c r="P14">
-        <v>0.5416091783729111</v>
+        <v>0.5916248119519028</v>
       </c>
       <c r="Q14">
-        <v>4.995468083535112</v>
+        <v>6.107975570914</v>
       </c>
       <c r="R14">
-        <v>44.959212751816</v>
+        <v>54.971780138226</v>
       </c>
       <c r="S14">
-        <v>0.00252847823650059</v>
+        <v>0.001492837930711243</v>
       </c>
       <c r="T14">
-        <v>0.00252847823650059</v>
+        <v>0.001492837930711243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1783006666666667</v>
+        <v>0.147322</v>
       </c>
       <c r="H15">
-        <v>0.534902</v>
+        <v>0.441966</v>
       </c>
       <c r="I15">
-        <v>0.004668455294824549</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="J15">
-        <v>0.004668455294824548</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.923303</v>
       </c>
       <c r="O15">
-        <v>0.01883715760812509</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="P15">
-        <v>0.0188371576081251</v>
+        <v>0.01390494488024241</v>
       </c>
       <c r="Q15">
-        <v>0.1737422912562222</v>
+        <v>0.1435556148553333</v>
       </c>
       <c r="R15">
-        <v>1.563680621306</v>
+        <v>1.292000533698</v>
       </c>
       <c r="S15">
-        <v>8.794042817509612E-05</v>
+        <v>3.508613689339742E-05</v>
       </c>
       <c r="T15">
-        <v>8.794042817509612E-05</v>
+        <v>3.508613689339743E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1783006666666667</v>
+        <v>0.147322</v>
       </c>
       <c r="H16">
-        <v>0.534902</v>
+        <v>0.441966</v>
       </c>
       <c r="I16">
-        <v>0.004668455294824549</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="J16">
-        <v>0.004668455294824548</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.65829733333333</v>
+        <v>27.57046566666667</v>
       </c>
       <c r="N16">
-        <v>67.974892</v>
+        <v>82.71139700000001</v>
       </c>
       <c r="O16">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077632</v>
       </c>
       <c r="P16">
-        <v>0.4380160913867915</v>
+        <v>0.3934239510077633</v>
       </c>
       <c r="Q16">
-        <v>4.039989520064889</v>
+        <v>4.061736142944667</v>
       </c>
       <c r="R16">
-        <v>36.359905680584</v>
+        <v>36.555625286502</v>
       </c>
       <c r="S16">
-        <v>0.00204485854105302</v>
+        <v>0.0009927206990811904</v>
       </c>
       <c r="T16">
-        <v>0.00204485854105302</v>
+        <v>0.0009927206990811906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1783006666666667</v>
+        <v>0.147322</v>
       </c>
       <c r="H17">
-        <v>0.534902</v>
+        <v>0.441966</v>
       </c>
       <c r="I17">
-        <v>0.004668455294824549</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="J17">
-        <v>0.004668455294824548</v>
+        <v>0.002523284859852372</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07953766666666667</v>
+        <v>0.07332233333333334</v>
       </c>
       <c r="N17">
-        <v>0.238613</v>
+        <v>0.219967</v>
       </c>
       <c r="O17">
-        <v>0.001537572632172427</v>
+        <v>0.001046292160091609</v>
       </c>
       <c r="P17">
-        <v>0.001537572632172428</v>
+        <v>0.00104629216009161</v>
       </c>
       <c r="Q17">
-        <v>0.01418161899177778</v>
+        <v>0.01080199279133333</v>
       </c>
       <c r="R17">
-        <v>0.127634570926</v>
+        <v>0.09721793512199998</v>
       </c>
       <c r="S17">
-        <v>7.178089095842687E-06</v>
+        <v>2.640093166541392E-06</v>
       </c>
       <c r="T17">
-        <v>7.178089095842688E-06</v>
+        <v>2.640093166541393E-06</v>
       </c>
     </row>
   </sheetData>
